--- a/data/paraguay_12.xlsx
+++ b/data/paraguay_12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nico_7/Desktop/calendar-opt-master/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fdduarte/Development/universidad/tesis/calendar-opt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDD7668-5DEF-854F-B64A-F1583D9932E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C771822-CC40-BA47-9F95-2905BDAE2F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="20100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados" sheetId="3" r:id="rId1"/>
@@ -270,7 +270,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -291,7 +291,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -614,7 +614,7 @@
   <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>22</v>
       </c>
       <c r="B2" s="3"/>
@@ -653,10 +653,10 @@
         <v>44743</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -667,10 +667,10 @@
         <v>44743</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -681,10 +681,10 @@
         <v>44744</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -695,10 +695,10 @@
         <v>44744</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -709,10 +709,10 @@
         <v>44745</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
@@ -723,10 +723,10 @@
         <v>44745</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -743,10 +743,10 @@
         <v>44737</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -757,10 +757,10 @@
         <v>44737</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -771,10 +771,10 @@
         <v>44738</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
@@ -785,10 +785,10 @@
         <v>44738</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
@@ -799,10 +799,10 @@
         <v>44739</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -813,10 +813,10 @@
         <v>44739</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -833,10 +833,10 @@
         <v>44733</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
         <v>34</v>
@@ -847,10 +847,10 @@
         <v>44733</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
@@ -861,10 +861,10 @@
         <v>44734</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
@@ -875,10 +875,10 @@
         <v>44734</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -889,10 +889,10 @@
         <v>44735</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
         <v>22</v>
@@ -903,10 +903,10 @@
         <v>44735</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
@@ -923,10 +923,10 @@
         <v>44729</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
@@ -937,10 +937,10 @@
         <v>44729</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
         <v>29</v>
@@ -951,10 +951,10 @@
         <v>44730</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
         <v>25</v>
@@ -965,10 +965,10 @@
         <v>44730</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
         <v>18</v>
@@ -979,10 +979,10 @@
         <v>44731</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
         <v>37</v>
@@ -993,10 +993,10 @@
         <v>44731</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
         <v>31</v>
@@ -1013,10 +1013,10 @@
         <v>44724</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
         <v>32</v>
@@ -1027,10 +1027,10 @@
         <v>44724</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
         <v>17</v>
@@ -1041,10 +1041,10 @@
         <v>44725</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E33" t="s">
         <v>35</v>
@@ -1055,10 +1055,10 @@
         <v>44725</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
@@ -1069,10 +1069,10 @@
         <v>44726</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
         <v>23</v>
@@ -1083,10 +1083,10 @@
         <v>44726</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
@@ -1103,10 +1103,10 @@
         <v>44701</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
         <v>19</v>
@@ -1117,10 +1117,10 @@
         <v>44702</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
         <v>17</v>
@@ -1131,10 +1131,10 @@
         <v>44702</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s">
         <v>36</v>
@@ -1145,10 +1145,10 @@
         <v>44703</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
         <v>36</v>
@@ -1159,10 +1159,10 @@
         <v>44703</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E42" t="s">
         <v>19</v>
@@ -1173,10 +1173,10 @@
         <v>44711</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E43" t="s">
         <v>36</v>
@@ -1193,10 +1193,10 @@
         <v>44695</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
         <v>17</v>
@@ -1207,10 +1207,10 @@
         <v>44695</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E46" t="s">
         <v>27</v>
@@ -1221,10 +1221,10 @@
         <v>44694</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E47" t="s">
         <v>32</v>
@@ -1235,10 +1235,10 @@
         <v>44696</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E48" t="s">
         <v>24</v>
@@ -1249,10 +1249,10 @@
         <v>44696</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
         <v>23</v>
@@ -1263,10 +1263,10 @@
         <v>44697</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E50" t="s">
         <v>35</v>
@@ -1283,10 +1283,10 @@
         <v>44691</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E52" t="s">
         <v>32</v>
@@ -1297,10 +1297,10 @@
         <v>44691</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E53" t="s">
         <v>34</v>
@@ -1311,10 +1311,10 @@
         <v>44692</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D54" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E54" t="s">
         <v>19</v>
@@ -1325,10 +1325,10 @@
         <v>44691</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E55" t="s">
         <v>35</v>
@@ -1339,10 +1339,10 @@
         <v>44692</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
         <v>17</v>
@@ -1353,10 +1353,10 @@
         <v>44692</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E57" t="s">
         <v>32</v>
@@ -1373,10 +1373,10 @@
         <v>44687</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E59" t="s">
         <v>32</v>
@@ -1387,10 +1387,10 @@
         <v>44688</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E60" t="s">
         <v>17</v>
@@ -1401,10 +1401,10 @@
         <v>44688</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E61" t="s">
         <v>19</v>
@@ -1415,10 +1415,10 @@
         <v>44687</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E62" t="s">
         <v>18</v>
@@ -1429,10 +1429,10 @@
         <v>44689</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E63" t="s">
         <v>27</v>
@@ -1443,10 +1443,10 @@
         <v>44689</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E64" t="s">
         <v>32</v>
@@ -1463,10 +1463,10 @@
         <v>44680</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E66" t="s">
         <v>35</v>
@@ -1477,10 +1477,10 @@
         <v>44681</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
@@ -1491,10 +1491,10 @@
         <v>44681</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E68" t="s">
         <v>19</v>
@@ -1505,10 +1505,10 @@
         <v>44680</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E69" t="s">
         <v>29</v>
@@ -1519,10 +1519,10 @@
         <v>44682</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E70" t="s">
         <v>18</v>
@@ -1533,10 +1533,10 @@
         <v>44682</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E71" t="s">
         <v>19</v>
@@ -1553,10 +1553,10 @@
         <v>44674</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E73" t="s">
         <v>33</v>
@@ -1567,10 +1567,10 @@
         <v>44675</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E74" t="s">
         <v>25</v>
@@ -1581,10 +1581,10 @@
         <v>44675</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E75" t="s">
         <v>27</v>
@@ -1595,10 +1595,10 @@
         <v>44674</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D76" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E76" t="s">
         <v>26</v>
@@ -1609,10 +1609,10 @@
         <v>44676</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E77" t="s">
         <v>28</v>
@@ -1623,10 +1623,10 @@
         <v>44676</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D78" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E78" t="s">
         <v>34</v>
@@ -1643,10 +1643,10 @@
         <v>44671</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E80" t="s">
         <v>28</v>
@@ -1657,10 +1657,10 @@
         <v>44671</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E81" t="s">
         <v>17</v>
@@ -1671,10 +1671,10 @@
         <v>44670</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E82" t="s">
         <v>19</v>
@@ -1685,10 +1685,10 @@
         <v>44672</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E83" t="s">
         <v>29</v>
@@ -1699,10 +1699,10 @@
         <v>44671</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E84" t="s">
         <v>18</v>
@@ -1713,10 +1713,10 @@
         <v>44672</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D85" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E85" t="s">
         <v>28</v>
@@ -1733,10 +1733,10 @@
         <v>44667</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D87" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E87" t="s">
         <v>17</v>
@@ -1747,10 +1747,10 @@
         <v>44667</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D88" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E88" t="s">
         <v>25</v>
@@ -1761,10 +1761,10 @@
         <v>44668</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E89" t="s">
         <v>27</v>
@@ -1775,10 +1775,10 @@
         <v>44668</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E90" t="s">
         <v>33</v>
@@ -1789,10 +1789,10 @@
         <v>44668</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E91" t="s">
         <v>27</v>
@@ -1803,10 +1803,10 @@
         <v>44669</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E92" t="s">
         <v>19</v>
@@ -1823,10 +1823,10 @@
         <v>44659</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E94" t="s">
         <v>22</v>
@@ -1837,10 +1837,10 @@
         <v>44660</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E95" t="s">
         <v>17</v>
@@ -1851,10 +1851,10 @@
         <v>44659</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E96" t="s">
         <v>32</v>
@@ -1865,10 +1865,10 @@
         <v>44661</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D97" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E97" t="s">
         <v>28</v>
@@ -1879,10 +1879,10 @@
         <v>44660</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E98" t="s">
         <v>25</v>
@@ -1893,10 +1893,10 @@
         <v>44661</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E99" t="s">
         <v>25</v>
@@ -1913,10 +1913,10 @@
         <v>44652</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E101" t="s">
         <v>29</v>
@@ -1927,10 +1927,10 @@
         <v>44653</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E102" t="s">
         <v>26</v>
@@ -1941,10 +1941,10 @@
         <v>44652</v>
       </c>
       <c r="C103" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D103" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E103" t="s">
         <v>27</v>
@@ -1955,10 +1955,10 @@
         <v>44654</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E104" t="s">
         <v>27</v>
@@ -1969,10 +1969,10 @@
         <v>44653</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E105" t="s">
         <v>26</v>
@@ -1983,10 +1983,10 @@
         <v>44654</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E106" t="s">
         <v>32</v>
@@ -2003,10 +2003,10 @@
         <v>44639</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D108" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E108" t="s">
         <v>25</v>
@@ -2017,10 +2017,10 @@
         <v>44639</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E109" t="s">
         <v>34</v>
@@ -2031,10 +2031,10 @@
         <v>44640</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D110" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E110" t="s">
         <v>29</v>
@@ -2045,10 +2045,10 @@
         <v>44640</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E111" t="s">
         <v>31</v>
@@ -2059,10 +2059,10 @@
         <v>44641</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D112" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E112" t="s">
         <v>27</v>
@@ -2073,10 +2073,10 @@
         <v>44641</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E113" t="s">
         <v>25</v>
@@ -2093,10 +2093,10 @@
         <v>44631</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D115" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E115" t="s">
         <v>31</v>
@@ -2107,10 +2107,10 @@
         <v>44632</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E116" t="s">
         <v>22</v>
@@ -2121,10 +2121,10 @@
         <v>44632</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E117" t="s">
         <v>28</v>
@@ -2135,10 +2135,10 @@
         <v>44633</v>
       </c>
       <c r="C118" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D118" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E118" t="s">
         <v>31</v>
@@ -2149,10 +2149,10 @@
         <v>44634</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D119" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E119" t="s">
         <v>17</v>
@@ -2163,10 +2163,10 @@
         <v>44634</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D120" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E120" t="s">
         <v>34</v>
@@ -2183,10 +2183,10 @@
         <v>44624</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D122" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E122" t="s">
         <v>32</v>
@@ -2197,10 +2197,10 @@
         <v>44625</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E123" t="s">
         <v>18</v>
@@ -2211,10 +2211,10 @@
         <v>44625</v>
       </c>
       <c r="C124" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D124" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E124" t="s">
         <v>33</v>
@@ -2225,10 +2225,10 @@
         <v>44626</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D125" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E125" t="s">
         <v>29</v>
@@ -2239,10 +2239,10 @@
         <v>44626</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E126" t="s">
         <v>29</v>
@@ -2253,10 +2253,10 @@
         <v>44627</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D127" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E127" t="s">
         <v>24</v>
@@ -2273,10 +2273,10 @@
         <v>44617</v>
       </c>
       <c r="C129" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D129" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E129" t="s">
         <v>19</v>
@@ -2287,10 +2287,10 @@
         <v>44617</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D130" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E130" t="s">
         <v>18</v>
@@ -2301,10 +2301,10 @@
         <v>44618</v>
       </c>
       <c r="C131" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D131" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E131" t="s">
         <v>30</v>
@@ -2315,10 +2315,10 @@
         <v>44619</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E132" t="s">
         <v>31</v>
@@ -2329,10 +2329,10 @@
         <v>44619</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D133" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E133" t="s">
         <v>25</v>
@@ -2343,10 +2343,10 @@
         <v>44646</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D134" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E134" t="s">
         <v>25</v>
@@ -2363,10 +2363,10 @@
         <v>44610</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D136" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E136" t="s">
         <v>27</v>
@@ -2377,10 +2377,10 @@
         <v>44610</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E137" t="s">
         <v>28</v>
@@ -2391,10 +2391,10 @@
         <v>44611</v>
       </c>
       <c r="C138" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D138" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E138" t="s">
         <v>29</v>
@@ -2405,10 +2405,10 @@
         <v>44611</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D139" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E139" t="s">
         <v>29</v>
@@ -2419,10 +2419,10 @@
         <v>44612</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E140" t="s">
         <v>19</v>
@@ -2433,10 +2433,10 @@
         <v>44612</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D141" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E141" t="s">
         <v>18</v>
@@ -2453,10 +2453,10 @@
         <v>44603</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E143" t="s">
         <v>22</v>
@@ -2467,10 +2467,10 @@
         <v>44603</v>
       </c>
       <c r="C144" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D144" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E144" t="s">
         <v>23</v>
@@ -2481,10 +2481,10 @@
         <v>44604</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D145" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E145" t="s">
         <v>24</v>
@@ -2495,10 +2495,10 @@
         <v>44604</v>
       </c>
       <c r="C146" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E146" t="s">
         <v>19</v>
@@ -2509,10 +2509,10 @@
         <v>44605</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D147" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E147" t="s">
         <v>25</v>
@@ -2523,10 +2523,10 @@
         <v>44605</v>
       </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E148" t="s">
         <v>26</v>
@@ -2543,10 +2543,10 @@
         <v>44596</v>
       </c>
       <c r="C150" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D150" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E150" t="s">
         <v>17</v>
@@ -2557,10 +2557,10 @@
         <v>44596</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D151" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E151" t="s">
         <v>18</v>
@@ -2571,10 +2571,10 @@
         <v>44597</v>
       </c>
       <c r="C152" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D152" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E152" t="s">
         <v>19</v>
@@ -2585,10 +2585,10 @@
         <v>44597</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D153" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E153" t="s">
         <v>20</v>
@@ -2599,10 +2599,10 @@
         <v>44598</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D154" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E154" t="s">
         <v>17</v>
@@ -2613,10 +2613,10 @@
         <v>44598</v>
       </c>
       <c r="C155" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D155" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E155" t="s">
         <v>21</v>
@@ -2637,7 +2637,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
